--- a/data/trans_dic/P43C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Provincia-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5130839536804004</v>
+        <v>0.5066469405770724</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6601807328572715</v>
+        <v>0.6543251634284716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6600973720977878</v>
+        <v>0.6550787188645811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8416711760030764</v>
+        <v>0.8350597812357652</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6382726258905785</v>
+        <v>0.6382279707404727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7689638893141124</v>
+        <v>0.7682302797324451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7659422672851686</v>
+        <v>0.7617874858881609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9333668826534652</v>
+        <v>0.9332733365824463</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.7381002389205984</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.574856826135814</v>
+        <v>0.5748568261358141</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5030135747006991</v>
+        <v>0.5016388094505007</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6896375974560026</v>
+        <v>0.6909529716656718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6951696846553397</v>
+        <v>0.6954316928045836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5272175236951655</v>
+        <v>0.5337024565861658</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.588873364911177</v>
+        <v>0.5895230182174674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7700688664780155</v>
+        <v>0.7695436262145074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7793720186823606</v>
+        <v>0.7779253388990094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.619099484716479</v>
+        <v>0.6229043577644284</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.7877909694840043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6294968960868833</v>
+        <v>0.6294968960868834</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5111891284136358</v>
+        <v>0.5156881080119396</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5151572817404934</v>
+        <v>0.5088007898754933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7399687972421869</v>
+        <v>0.7424741361598762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5753018365921293</v>
+        <v>0.574412770318123</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6183441862563949</v>
+        <v>0.6194797546302985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6216440940427149</v>
+        <v>0.6166453800577782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8298838505918905</v>
+        <v>0.8263279815464145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6812627696923137</v>
+        <v>0.6816155863340927</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.516195335142305</v>
+        <v>0.5156915000758835</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.621188985277788</v>
+        <v>0.6194691188241075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6434624092809916</v>
+        <v>0.6467339039941861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5967596366278862</v>
+        <v>0.6020104771599192</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6190869080597168</v>
+        <v>0.6187196800939649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7160014167917197</v>
+        <v>0.7201469438552709</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.744212366244223</v>
+        <v>0.7456487151056524</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7110591143098414</v>
+        <v>0.7137048671829105</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3553608340016053</v>
+        <v>0.3456920600636393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5675811674619841</v>
+        <v>0.565961923781836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3708608695134145</v>
+        <v>0.3704174033583545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3421939971182967</v>
+        <v>0.3446586488024583</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4924467365865481</v>
+        <v>0.4865998588013045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7004150012127434</v>
+        <v>0.6924326327822148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5047101895102768</v>
+        <v>0.5087036875719503</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4491249936326689</v>
+        <v>0.4507046038687347</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3991610256522269</v>
+        <v>0.4036471267172065</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4806490695989186</v>
+        <v>0.4807587728279272</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1841479029144015</v>
+        <v>0.1866552308443959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3632197380036784</v>
+        <v>0.3618701738318597</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5207767322337838</v>
+        <v>0.5269430142180396</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6052828238139667</v>
+        <v>0.6022273129390554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2881818906365318</v>
+        <v>0.2916496196293362</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4699246686499518</v>
+        <v>0.4691603827475304</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.6195719477713547</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7374251890983322</v>
+        <v>0.7374251890983323</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.597401837251714</v>
+        <v>0.5944459366456746</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5983495706917535</v>
+        <v>0.6005707972244841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5798583262245537</v>
+        <v>0.5769520533967608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6999262257669301</v>
+        <v>0.6980513936154094</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6716464679252236</v>
+        <v>0.6719330567901352</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.675595729964134</v>
+        <v>0.6763121683525571</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6562722408496442</v>
+        <v>0.6559445980723687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7740513803899813</v>
+        <v>0.7734687723809902</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4346932034117703</v>
+        <v>0.4358614018777857</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6237611573536697</v>
+        <v>0.6197628321265425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6321147961187908</v>
+        <v>0.6311106139204593</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3654729779114353</v>
+        <v>0.3659850839263495</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5068076106482333</v>
+        <v>0.5086358528644209</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6902200838805076</v>
+        <v>0.6881604763566596</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7006115031917847</v>
+        <v>0.698314749576041</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.432702264883428</v>
+        <v>0.4349618317441465</v>
       </c>
     </row>
     <row r="28">
@@ -1113,7 +1113,7 @@
         <v>0.6394171953292009</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
     </row>
     <row r="29">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>130621</v>
+        <v>128983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>184728</v>
+        <v>183090</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>187544</v>
+        <v>186118</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>171494</v>
+        <v>170147</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>162492</v>
+        <v>162481</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>215168</v>
+        <v>214962</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>217616</v>
+        <v>216435</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>190177</v>
+        <v>190158</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>250105</v>
+        <v>249422</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>357656</v>
+        <v>358339</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>361819</v>
+        <v>361956</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>221709</v>
+        <v>224436</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>292796</v>
+        <v>293119</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>399369</v>
+        <v>399097</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>405644</v>
+        <v>404891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>260347</v>
+        <v>261947</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>169458</v>
+        <v>170950</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175171</v>
+        <v>173010</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>245380</v>
+        <v>246211</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>146708</v>
+        <v>146481</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>204980</v>
+        <v>205356</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>211380</v>
+        <v>209680</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>275197</v>
+        <v>274018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>173729</v>
+        <v>173819</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>190854</v>
+        <v>190668</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>241018</v>
+        <v>240351</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>248427</v>
+        <v>249690</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>189356</v>
+        <v>191022</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228897</v>
+        <v>228761</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>277805</v>
+        <v>279413</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>287324</v>
+        <v>287879</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>225624</v>
+        <v>226464</v>
       </c>
     </row>
     <row r="20">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72139</v>
+        <v>70176</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122880</v>
+        <v>122530</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>80005</v>
+        <v>79910</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56317</v>
+        <v>56723</v>
       </c>
     </row>
     <row r="23">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99968</v>
+        <v>98781</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>151638</v>
+        <v>149910</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108881</v>
+        <v>109742</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73916</v>
+        <v>74176</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>109691</v>
+        <v>110923</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>134597</v>
+        <v>134627</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49808</v>
+        <v>50486</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>77965</v>
+        <v>77675</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>143111</v>
+        <v>144806</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>169498</v>
+        <v>168642</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>77947</v>
+        <v>78885</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>100869</v>
+        <v>100705</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>379654</v>
+        <v>377776</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>411615</v>
+        <v>413143</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>393262</v>
+        <v>391291</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>374735</v>
+        <v>373731</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>426837</v>
+        <v>427020</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>464754</v>
+        <v>465247</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>445086</v>
+        <v>444864</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>414421</v>
+        <v>414109</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>330675</v>
+        <v>331564</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>506149</v>
+        <v>502905</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>518323</v>
+        <v>517500</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>244380</v>
+        <v>244722</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>385533</v>
+        <v>386924</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>560077</v>
+        <v>558406</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>574490</v>
+        <v>572606</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>289334</v>
+        <v>290845</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
     </row>
     <row r="40">
